--- a/data/dummy_data.xlsx
+++ b/data/dummy_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,708 +455,863 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>kelembapan</t>
+          <t>kelembaban</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>kondisi</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45286.85295138889</v>
+        <v>45290.74818287037</v>
       </c>
       <c r="B2" t="n">
-        <v>30.66</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>2.93</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>75.48</v>
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45279.49890046296</v>
+        <v>45287.73350694445</v>
       </c>
       <c r="B3" t="n">
-        <v>24.07</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>12.44</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>77.18000000000001</v>
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45252.75731481481</v>
+        <v>45278.24825231481</v>
       </c>
       <c r="B4" t="n">
-        <v>23.27</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>5.89</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>70.22</v>
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45249.10127314815</v>
+        <v>45274.48347222222</v>
       </c>
       <c r="B5" t="n">
-        <v>30.43</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>60.3</v>
+        <v>52</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45236.00755787037</v>
+        <v>45263.51774305556</v>
       </c>
       <c r="B6" t="n">
-        <v>22.32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>12.21</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>68.72</v>
+        <v>71</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45235.80631944445</v>
+        <v>45258.41157407407</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>4.18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>73.90000000000001</v>
+        <v>34</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45234.8765162037</v>
+        <v>45257.10090277778</v>
       </c>
       <c r="B8" t="n">
-        <v>16.93</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>7.21</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>55.43</v>
+        <v>45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45232.47127314815</v>
+        <v>45243.17815972222</v>
       </c>
       <c r="B9" t="n">
-        <v>19.11</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>3.77</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>47.9</v>
+        <v>39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45229.3405787037</v>
+        <v>45243.1775</v>
       </c>
       <c r="B10" t="n">
-        <v>27.05</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>5.92</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>47.73</v>
+        <v>41</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45224.87585648148</v>
+        <v>45239.63693287037</v>
       </c>
       <c r="B11" t="n">
-        <v>18.66</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>6.73</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>55.65</v>
+        <v>35</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45215.55984953704</v>
+        <v>45224.75795138889</v>
       </c>
       <c r="B12" t="n">
-        <v>20.59</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>11.3</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>56.57</v>
+        <v>55</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45210.72998842593</v>
+        <v>45216.6524074074</v>
       </c>
       <c r="B13" t="n">
-        <v>34.47</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>12.66</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>30.07</v>
+        <v>65</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45203.0153125</v>
+        <v>45216.2705324074</v>
       </c>
       <c r="B14" t="n">
-        <v>24.35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>71.28</v>
+        <v>59</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45190.77378472222</v>
+        <v>45214.54796296296</v>
       </c>
       <c r="B15" t="n">
-        <v>23.11</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>59.46</v>
+        <v>37</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45169.4353125</v>
+        <v>45209.85908564815</v>
       </c>
       <c r="B16" t="n">
-        <v>25.79</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>11.19</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>71.72</v>
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45150.82949074074</v>
+        <v>45209.52518518519</v>
       </c>
       <c r="B17" t="n">
-        <v>16.25</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>7.02</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>61.26</v>
+        <v>52</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45147.43368055556</v>
+        <v>45209.35216435185</v>
       </c>
       <c r="B18" t="n">
-        <v>27.11</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>8.35</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>54.73</v>
+        <v>55</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45140.44883101852</v>
+        <v>45193.38935185185</v>
       </c>
       <c r="B19" t="n">
-        <v>29.1</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>12.16</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>39.04</v>
+        <v>78</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45136.06418981482</v>
+        <v>45188.18847222222</v>
       </c>
       <c r="B20" t="n">
-        <v>16.57</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>1.64</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>34.6</v>
+        <v>47</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45121.84214120371</v>
+        <v>45178.74090277778</v>
       </c>
       <c r="B21" t="n">
-        <v>30.56</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>12.91</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>60.12</v>
+        <v>53</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45113.70366898148</v>
+        <v>45176.06996527778</v>
       </c>
       <c r="B22" t="n">
-        <v>23.24</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>7.49</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>42.55</v>
+        <v>60</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45084.74094907408</v>
+        <v>45172.77672453703</v>
       </c>
       <c r="B23" t="n">
-        <v>25.85</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>5.92</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>50.79</v>
+        <v>55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45076.10009259259</v>
+        <v>45165.97681712963</v>
       </c>
       <c r="B24" t="n">
-        <v>17.39</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>6.93</v>
+        <v>12</v>
       </c>
       <c r="D24" t="n">
-        <v>41.32</v>
+        <v>55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45076.07256944444</v>
+        <v>45163.67664351852</v>
       </c>
       <c r="B25" t="n">
-        <v>16.41</v>
+        <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>5.97</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>52.58</v>
+        <v>39</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45075.10990740741</v>
+        <v>45159.43076388889</v>
       </c>
       <c r="B26" t="n">
-        <v>28.82</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>7.82</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>49.71</v>
+        <v>60</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45074.52342592592</v>
+        <v>45151.56913194444</v>
       </c>
       <c r="B27" t="n">
-        <v>24.03</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>8.98</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>72.23</v>
+        <v>58</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45070.45975694444</v>
+        <v>45144.73336805555</v>
       </c>
       <c r="B28" t="n">
-        <v>25.68</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>49.5</v>
+        <v>69</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45056.07603009259</v>
+        <v>45141.03092592592</v>
       </c>
       <c r="B29" t="n">
-        <v>15.96</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
-        <v>5.95</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>72.18000000000001</v>
+        <v>80</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45049.41778935185</v>
+        <v>45131.95935185185</v>
       </c>
       <c r="B30" t="n">
-        <v>31.8</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>50.03</v>
+        <v>64</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45034.50592592593</v>
+        <v>45125.5090162037</v>
       </c>
       <c r="B31" t="n">
-        <v>15.45</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>3.53</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>79.19</v>
+        <v>74</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45033.84450231482</v>
+        <v>45113.45641203703</v>
       </c>
       <c r="B32" t="n">
-        <v>17.58</v>
+        <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.85</v>
+        <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>74.84999999999999</v>
+        <v>32</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45032.82825231482</v>
+        <v>45105.59313657408</v>
       </c>
       <c r="B33" t="n">
-        <v>31.46</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>13.41</v>
+        <v>10</v>
       </c>
       <c r="D33" t="n">
-        <v>64.73</v>
+        <v>67</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45029.14046296296</v>
+        <v>45097.57328703703</v>
       </c>
       <c r="B34" t="n">
-        <v>16.85</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>40.06</v>
+        <v>60</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45018.6677199074</v>
+        <v>45072.43355324074</v>
       </c>
       <c r="B35" t="n">
-        <v>15.79</v>
+        <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>4.19</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>49.05</v>
+        <v>78</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45018.53056712963</v>
+        <v>45060.44315972222</v>
       </c>
       <c r="B36" t="n">
-        <v>29.87</v>
+        <v>21</v>
       </c>
       <c r="C36" t="n">
-        <v>5.78</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>31.45</v>
+        <v>48</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45012.565625</v>
+        <v>45044.08393518518</v>
       </c>
       <c r="B37" t="n">
-        <v>27.77</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>8.26</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>51.38</v>
+        <v>55</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45010.17883101852</v>
+        <v>45034.17136574074</v>
       </c>
       <c r="B38" t="n">
-        <v>23.47</v>
+        <v>28</v>
       </c>
       <c r="C38" t="n">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>35.8</v>
+        <v>66</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45010.13188657408</v>
+        <v>45028.5818287037</v>
       </c>
       <c r="B39" t="n">
-        <v>34.16</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
-        <v>11.62</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>62.14</v>
+        <v>47</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45006.85890046296</v>
+        <v>45027.53461805556</v>
       </c>
       <c r="B40" t="n">
-        <v>16.74</v>
+        <v>20</v>
       </c>
       <c r="C40" t="n">
-        <v>11.29</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>77.95</v>
+        <v>76</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44989.19092592593</v>
+        <v>45020.66415509259</v>
       </c>
       <c r="B41" t="n">
-        <v>15.42</v>
+        <v>21</v>
       </c>
       <c r="C41" t="n">
-        <v>5.95</v>
+        <v>9</v>
       </c>
       <c r="D41" t="n">
-        <v>76.39</v>
+        <v>31</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44981.465</v>
+        <v>44994.15579861111</v>
       </c>
       <c r="B42" t="n">
-        <v>29.91</v>
+        <v>28</v>
       </c>
       <c r="C42" t="n">
-        <v>8.58</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>77.89</v>
+        <v>72</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44979.24394675926</v>
+        <v>44993.64069444445</v>
       </c>
       <c r="B43" t="n">
-        <v>30.58</v>
+        <v>19</v>
       </c>
       <c r="C43" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>70.39</v>
+        <v>64</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44977.95390046296</v>
+        <v>44982.34802083333</v>
       </c>
       <c r="B44" t="n">
-        <v>16.55</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>10.81</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>54.55</v>
+        <v>35</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44976.94409722222</v>
+        <v>44970.55246527777</v>
       </c>
       <c r="B45" t="n">
-        <v>17.62</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D45" t="n">
-        <v>68.98</v>
+        <v>52</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44967.01627314815</v>
+        <v>44968.80082175926</v>
       </c>
       <c r="B46" t="n">
-        <v>23.42</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>68.98999999999999</v>
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44964.74436342593</v>
+        <v>44962.47841435186</v>
       </c>
       <c r="B47" t="n">
-        <v>27.19</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
-        <v>10.26</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>52.15</v>
+        <v>70</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44957.51939814815</v>
+        <v>44956.7224074074</v>
       </c>
       <c r="B48" t="n">
-        <v>17.09</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>7.51</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>64.12</v>
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44933.01667824074</v>
+        <v>44953.17777777778</v>
       </c>
       <c r="B49" t="n">
-        <v>23.28</v>
+        <v>26</v>
       </c>
       <c r="C49" t="n">
-        <v>10.23</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>34.03</v>
+        <v>63</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44931.11788194445</v>
+        <v>44941.11733796296</v>
       </c>
       <c r="B50" t="n">
-        <v>28.7</v>
+        <v>31</v>
       </c>
       <c r="C50" t="n">
-        <v>5.81</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>39.93</v>
+        <v>30</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44927.74636574074</v>
+        <v>44936.24229166667</v>
       </c>
       <c r="B51" t="n">
-        <v>25.33</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>11.33</v>
+        <v>7</v>
       </c>
       <c r="D51" t="n">
-        <v>70.02</v>
+        <v>73</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
